--- a/spliced/falling/2023-03-25_17-56-24/gyroscope_selected.xlsx
+++ b/spliced/falling/2023-03-25_17-56-24/gyroscope_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,233 +452,222 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0678060427308082</v>
+        <v>-0.1356120854616165</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.026419922709465</v>
+        <v>-0.3391829133033752</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0497855171561241</v>
+        <v>0.0577267669141292</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.0740674138069152</v>
+        <v>-0.0936150997877121</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.4193589985370636</v>
+        <v>-0.3341432809829712</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0155770638957619</v>
+        <v>0.096211276948452</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-0.1356120854616165</v>
+        <v>-0.1012509167194366</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.3391829133033752</v>
+        <v>-0.6070473194122314</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0577267669141292</v>
+        <v>0.365755558013916</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-0.0936150997877121</v>
+        <v>0.027030786499381</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.3341432809829712</v>
+        <v>-0.5719226002693176</v>
       </c>
       <c r="C5" t="n">
-        <v>0.096211276948452</v>
+        <v>0.294895201921463</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-0.1012509167194366</v>
+        <v>-0.0676533281803131</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.6070473194122314</v>
+        <v>0.7681630253791809</v>
       </c>
       <c r="C6" t="n">
-        <v>0.365755558013916</v>
+        <v>0.1340849250555038</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.027030786499381</v>
+        <v>1.249219417572022</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.5719226002693176</v>
+        <v>2.446057081222534</v>
       </c>
       <c r="C7" t="n">
-        <v>0.294895201921463</v>
+        <v>-2.910009384155273</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-0.0676533281803131</v>
+        <v>-5.024672031402588</v>
       </c>
       <c r="B8" t="n">
-        <v>0.7681630253791809</v>
+        <v>3.37014365196228</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1340849250555038</v>
+        <v>1.169654250144958</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1.249219417572022</v>
+        <v>-0.4809036552906036</v>
       </c>
       <c r="B9" t="n">
-        <v>2.446057081222534</v>
+        <v>-0.9014843702316284</v>
       </c>
       <c r="C9" t="n">
-        <v>-2.910009384155273</v>
+        <v>-0.4489859640598297</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-5.024672031402588</v>
+        <v>0.1214094683527946</v>
       </c>
       <c r="B10" t="n">
-        <v>3.37014365196228</v>
+        <v>-0.1204931661486625</v>
       </c>
       <c r="C10" t="n">
-        <v>1.169654250144958</v>
+        <v>-0.1059851199388504</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-0.4809036552906036</v>
+        <v>0.1154535338282585</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.9014843702316284</v>
+        <v>0.580016553401947</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.4489859640598297</v>
+        <v>0.1820378452539444</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.1214094683527946</v>
+        <v>-0.0803287774324417</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.1204931661486625</v>
+        <v>0.523511528968811</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.1059851199388504</v>
+        <v>0.0910189226269722</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.1154535338282585</v>
+        <v>0.2764165103435516</v>
       </c>
       <c r="B13" t="n">
-        <v>0.580016553401947</v>
+        <v>-0.3255911767482757</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1820378452539444</v>
+        <v>-0.3462078869342804</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-0.0803287774324417</v>
+        <v>0.06276640295982359</v>
       </c>
       <c r="B14" t="n">
-        <v>0.523511528968811</v>
+        <v>-0.0484110713005065</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0910189226269722</v>
+        <v>-0.06322455406188961</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.2764165103435516</v>
+        <v>0.1180497109889984</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.3255911767482757</v>
+        <v>0.2403754740953445</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.3462078869342804</v>
+        <v>0.1624901592731475</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.06276640295982359</v>
+        <v>0.0467311926186084</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.0484110713005065</v>
+        <v>-0.0813977941870689</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.06322455406188961</v>
+        <v>0.0368046313524246</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.1180497109889984</v>
+        <v>-0.1041525229811668</v>
       </c>
       <c r="B17" t="n">
-        <v>0.2403754740953445</v>
+        <v>-0.1530217379331588</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1624901592731475</v>
+        <v>-0.0762054398655891</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.0467311926186084</v>
+        <v>0.0267253536731004</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.0813977941870689</v>
+        <v>0.1693623960018158</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0368046313524246</v>
+        <v>0.1466076523065567</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-0.1041525229811668</v>
+        <v>0.022754730656743</v>
       </c>
       <c r="B19" t="n">
-        <v>-0.1530217379331588</v>
+        <v>0.0076358155347406</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.0762054398655891</v>
+        <v>0.0436768643558025</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.0267253536731004</v>
+        <v>-0.0059559359215199</v>
       </c>
       <c r="B20" t="n">
-        <v>0.1693623960018158</v>
+        <v>-0.0832303911447525</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1466076523065567</v>
+        <v>-0.1382082551717758</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.022754730656743</v>
+        <v>0.0018325957935303</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0076358155347406</v>
+        <v>0.0178678091615438</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0436768643558025</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>-0.0059559359215199</v>
-      </c>
-      <c r="B22" t="n">
-        <v>-0.0832303911447525</v>
-      </c>
-      <c r="C22" t="n">
-        <v>-0.1382082551717758</v>
+        <v>0.0360410511493682</v>
       </c>
     </row>
   </sheetData>

--- a/spliced/falling/2023-03-25_17-56-24/gyroscope_selected.xlsx
+++ b/spliced/falling/2023-03-25_17-56-24/gyroscope_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,222 +452,332 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-0.1356120854616165</v>
+        <v>0.0106901414692401</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.3391829133033752</v>
+        <v>-0.00335975876078</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0577267669141292</v>
+        <v>0.0360410511493682</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.0936150997877121</v>
+        <v>-0.007177666760981</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.3341432809829712</v>
+        <v>-0.0487165041267871</v>
       </c>
       <c r="C3" t="n">
-        <v>0.096211276948452</v>
+        <v>0.0716239511966705</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-0.1012509167194366</v>
+        <v>-0.0007635815418325</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.6070473194122314</v>
+        <v>-0.0448985956609249</v>
       </c>
       <c r="C4" t="n">
-        <v>0.365755558013916</v>
+        <v>0.0595593601465225</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.027030786499381</v>
+        <v>0.09666942805051799</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.5719226002693176</v>
+        <v>0.0059559359215199</v>
       </c>
       <c r="C5" t="n">
-        <v>0.294895201921463</v>
+        <v>0.0488692186772823</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-0.0676533281803131</v>
+        <v>0.1411098688840866</v>
       </c>
       <c r="B6" t="n">
-        <v>0.7681630253791809</v>
+        <v>0.2434297949075698</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1340849250555038</v>
+        <v>-0.0125227374956011</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1.249219417572022</v>
+        <v>-0.0161879286170005</v>
       </c>
       <c r="B7" t="n">
-        <v>2.446057081222534</v>
+        <v>0.07849618047475811</v>
       </c>
       <c r="C7" t="n">
-        <v>-2.910009384155273</v>
+        <v>0.0746782794594764</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-5.024672031402588</v>
+        <v>0.0678060427308082</v>
       </c>
       <c r="B8" t="n">
-        <v>3.37014365196228</v>
+        <v>-0.026419922709465</v>
       </c>
       <c r="C8" t="n">
-        <v>1.169654250144958</v>
+        <v>0.0497855171561241</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-0.4809036552906036</v>
+        <v>-0.0740674138069152</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.9014843702316284</v>
+        <v>-0.4193589985370636</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.4489859640598297</v>
+        <v>0.0155770638957619</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.1214094683527946</v>
+        <v>-0.1356120854616165</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.1204931661486625</v>
+        <v>-0.3391829133033752</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.1059851199388504</v>
+        <v>0.0577267669141292</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.1154535338282585</v>
+        <v>-0.0936150997877121</v>
       </c>
       <c r="B11" t="n">
-        <v>0.580016553401947</v>
+        <v>-0.3341432809829712</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1820378452539444</v>
+        <v>0.096211276948452</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-0.0803287774324417</v>
+        <v>-0.1012509167194366</v>
       </c>
       <c r="B12" t="n">
-        <v>0.523511528968811</v>
+        <v>-0.6070473194122314</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0910189226269722</v>
+        <v>0.365755558013916</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.2764165103435516</v>
+        <v>0.027030786499381</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.3255911767482757</v>
+        <v>-0.5719226002693176</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.3462078869342804</v>
+        <v>0.294895201921463</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.06276640295982359</v>
+        <v>-0.0676533281803131</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.0484110713005065</v>
+        <v>0.7681630253791809</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.06322455406188961</v>
+        <v>0.1340849250555038</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.1180497109889984</v>
+        <v>1.249219417572022</v>
       </c>
       <c r="B15" t="n">
-        <v>0.2403754740953445</v>
+        <v>2.446057081222534</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1624901592731475</v>
+        <v>-2.910009384155273</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.0467311926186084</v>
+        <v>-5.024672031402588</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.0813977941870689</v>
+        <v>3.37014365196228</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0368046313524246</v>
+        <v>1.169654250144958</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-0.1041525229811668</v>
+        <v>-0.4809036552906036</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.1530217379331588</v>
+        <v>-0.9014843702316284</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.0762054398655891</v>
+        <v>-0.4489859640598297</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.0267253536731004</v>
+        <v>0.1214094683527946</v>
       </c>
       <c r="B18" t="n">
-        <v>0.1693623960018158</v>
+        <v>-0.1204931661486625</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1466076523065567</v>
+        <v>-0.1059851199388504</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.022754730656743</v>
+        <v>0.1154535338282585</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0076358155347406</v>
+        <v>0.580016553401947</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0436768643558025</v>
+        <v>0.1820378452539444</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-0.0059559359215199</v>
+        <v>-0.0803287774324417</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.0832303911447525</v>
+        <v>0.523511528968811</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.1382082551717758</v>
+        <v>0.0910189226269722</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
+        <v>0.2764165103435516</v>
+      </c>
+      <c r="B21" t="n">
+        <v>-0.3255911767482757</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-0.3462078869342804</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>0.06276640295982359</v>
+      </c>
+      <c r="B22" t="n">
+        <v>-0.0484110713005065</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-0.06322455406188961</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>0.1180497109889984</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.2403754740953445</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.1624901592731475</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>0.0467311926186084</v>
+      </c>
+      <c r="B24" t="n">
+        <v>-0.0813977941870689</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.0368046313524246</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>-0.1041525229811668</v>
+      </c>
+      <c r="B25" t="n">
+        <v>-0.1530217379331588</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-0.0762054398655891</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>0.0267253536731004</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.1693623960018158</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.1466076523065567</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>0.022754730656743</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.0076358155347406</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.0436768643558025</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>-0.0059559359215199</v>
+      </c>
+      <c r="B28" t="n">
+        <v>-0.0832303911447525</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-0.1382082551717758</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
         <v>0.0018325957935303</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B29" t="n">
         <v>0.0178678091615438</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C29" t="n">
         <v>0.0360410511493682</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>-0.0224492978304624</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.0058032199740409</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.0675006061792373</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>-0.009010262787342</v>
+      </c>
+      <c r="B31" t="n">
+        <v>-0.0429132841527462</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-0.06276640295982359</v>
       </c>
     </row>
   </sheetData>
